--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.801662666666667</v>
+        <v>8.973193999999999</v>
       </c>
       <c r="H2">
-        <v>29.404988</v>
+        <v>26.919582</v>
       </c>
       <c r="I2">
-        <v>0.3903913270717663</v>
+        <v>0.3566934323398233</v>
       </c>
       <c r="J2">
-        <v>0.3903913270717663</v>
+        <v>0.3566934323398234</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6054233333333333</v>
+        <v>5.904062666666666</v>
       </c>
       <c r="N2">
-        <v>1.81627</v>
+        <v>17.712188</v>
       </c>
       <c r="O2">
-        <v>0.3419053608852526</v>
+        <v>0.7745842164222705</v>
       </c>
       <c r="P2">
-        <v>0.3419053608852526</v>
+        <v>0.7745842164222705</v>
       </c>
       <c r="Q2">
-        <v>5.934155283862222</v>
+        <v>52.97829969615732</v>
       </c>
       <c r="R2">
-        <v>53.40739755476</v>
+        <v>476.8046972654159</v>
       </c>
       <c r="S2">
-        <v>0.133476887568945</v>
+        <v>0.2762891027919122</v>
       </c>
       <c r="T2">
-        <v>0.133476887568945</v>
+        <v>0.2762891027919123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.801662666666667</v>
+        <v>8.973193999999999</v>
       </c>
       <c r="H3">
-        <v>29.404988</v>
+        <v>26.919582</v>
       </c>
       <c r="I3">
-        <v>0.3903913270717663</v>
+        <v>0.3566934323398233</v>
       </c>
       <c r="J3">
-        <v>0.3903913270717663</v>
+        <v>0.3566934323398234</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.165310333333333</v>
+        <v>1.718172</v>
       </c>
       <c r="N3">
-        <v>3.495931</v>
+        <v>5.154515999999999</v>
       </c>
       <c r="O3">
-        <v>0.6580946391147473</v>
+        <v>0.2254157835777295</v>
       </c>
       <c r="P3">
-        <v>0.6580946391147473</v>
+        <v>0.2254157835777294</v>
       </c>
       <c r="Q3">
-        <v>11.42197878931422</v>
+        <v>15.417490681368</v>
       </c>
       <c r="R3">
-        <v>102.797809103828</v>
+        <v>138.757416132312</v>
       </c>
       <c r="S3">
-        <v>0.2569144395028213</v>
+        <v>0.0804043295479111</v>
       </c>
       <c r="T3">
-        <v>0.2569144395028213</v>
+        <v>0.0804043295479111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>16.050451</v>
       </c>
       <c r="I4">
-        <v>0.2130916314602937</v>
+        <v>0.2126738244966861</v>
       </c>
       <c r="J4">
-        <v>0.2130916314602937</v>
+        <v>0.2126738244966861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6054233333333333</v>
+        <v>5.904062666666666</v>
       </c>
       <c r="N4">
-        <v>1.81627</v>
+        <v>17.712188</v>
       </c>
       <c r="O4">
-        <v>0.3419053608852526</v>
+        <v>0.7745842164222705</v>
       </c>
       <c r="P4">
-        <v>0.3419053608852526</v>
+        <v>0.7745842164222705</v>
       </c>
       <c r="Q4">
-        <v>3.239105848641111</v>
+        <v>31.58762284408754</v>
       </c>
       <c r="R4">
-        <v>29.15195263776999</v>
+        <v>284.2886055967879</v>
       </c>
       <c r="S4">
-        <v>0.07285717115605897</v>
+        <v>0.164733787701293</v>
       </c>
       <c r="T4">
-        <v>0.07285717115605897</v>
+        <v>0.1647337877012931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>16.050451</v>
       </c>
       <c r="I5">
-        <v>0.2130916314602937</v>
+        <v>0.2126738244966861</v>
       </c>
       <c r="J5">
-        <v>0.2130916314602937</v>
+        <v>0.2126738244966861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.165310333333333</v>
+        <v>1.718172</v>
       </c>
       <c r="N5">
-        <v>3.495931</v>
+        <v>5.154515999999999</v>
       </c>
       <c r="O5">
-        <v>0.6580946391147473</v>
+        <v>0.2254157835777295</v>
       </c>
       <c r="P5">
-        <v>0.6580946391147473</v>
+        <v>0.2254157835777294</v>
       </c>
       <c r="Q5">
-        <v>6.23458546832011</v>
+        <v>9.192478498523998</v>
       </c>
       <c r="R5">
-        <v>56.11126921488099</v>
+        <v>82.73230648671598</v>
       </c>
       <c r="S5">
-        <v>0.1402344603042347</v>
+        <v>0.047940036795393</v>
       </c>
       <c r="T5">
-        <v>0.1402344603042347</v>
+        <v>0.04794003679539301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.545239</v>
+        <v>5.356989333333334</v>
       </c>
       <c r="H6">
-        <v>10.635717</v>
+        <v>16.070968</v>
       </c>
       <c r="I6">
-        <v>0.1412036513665554</v>
+        <v>0.2129456815838918</v>
       </c>
       <c r="J6">
-        <v>0.1412036513665554</v>
+        <v>0.2129456815838919</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6054233333333333</v>
+        <v>5.904062666666666</v>
       </c>
       <c r="N6">
-        <v>1.81627</v>
+        <v>17.712188</v>
       </c>
       <c r="O6">
-        <v>0.3419053608852526</v>
+        <v>0.7745842164222705</v>
       </c>
       <c r="P6">
-        <v>0.3419053608852526</v>
+        <v>0.7745842164222705</v>
       </c>
       <c r="Q6">
-        <v>2.146370412843333</v>
+        <v>31.62800072866489</v>
       </c>
       <c r="R6">
-        <v>19.31733371559</v>
+        <v>284.652006557984</v>
       </c>
       <c r="S6">
-        <v>0.04827828537879753</v>
+        <v>0.1649443639101652</v>
       </c>
       <c r="T6">
-        <v>0.04827828537879753</v>
+        <v>0.1649443639101652</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.545239</v>
+        <v>5.356989333333334</v>
       </c>
       <c r="H7">
-        <v>10.635717</v>
+        <v>16.070968</v>
       </c>
       <c r="I7">
-        <v>0.1412036513665554</v>
+        <v>0.2129456815838918</v>
       </c>
       <c r="J7">
-        <v>0.1412036513665554</v>
+        <v>0.2129456815838919</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.165310333333333</v>
+        <v>1.718172</v>
       </c>
       <c r="N7">
-        <v>3.495931</v>
+        <v>5.154515999999999</v>
       </c>
       <c r="O7">
-        <v>0.6580946391147473</v>
+        <v>0.2254157835777295</v>
       </c>
       <c r="P7">
-        <v>0.6580946391147473</v>
+        <v>0.2254157835777294</v>
       </c>
       <c r="Q7">
-        <v>4.131303640836333</v>
+        <v>9.204229076832</v>
       </c>
       <c r="R7">
-        <v>37.181732767527</v>
+        <v>82.83806169148799</v>
       </c>
       <c r="S7">
-        <v>0.09292536598775787</v>
+        <v>0.04800131767372665</v>
       </c>
       <c r="T7">
-        <v>0.09292536598775787</v>
+        <v>0.04800131767372665</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.322645666666667</v>
+        <v>1.055528333333333</v>
       </c>
       <c r="H8">
-        <v>3.967937</v>
+        <v>3.166585</v>
       </c>
       <c r="I8">
-        <v>0.05267977634159086</v>
+        <v>0.04195830650140851</v>
       </c>
       <c r="J8">
-        <v>0.05267977634159086</v>
+        <v>0.04195830650140851</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6054233333333333</v>
+        <v>5.904062666666666</v>
       </c>
       <c r="N8">
-        <v>1.81627</v>
+        <v>17.712188</v>
       </c>
       <c r="O8">
-        <v>0.3419053608852526</v>
+        <v>0.7745842164222705</v>
       </c>
       <c r="P8">
-        <v>0.3419053608852526</v>
+        <v>0.7745842164222705</v>
       </c>
       <c r="Q8">
-        <v>0.8007605483322222</v>
+        <v>6.231905426442221</v>
       </c>
       <c r="R8">
-        <v>7.206844934989999</v>
+        <v>56.08714883798</v>
       </c>
       <c r="S8">
-        <v>0.01801149794142602</v>
+        <v>0.03250024196379897</v>
       </c>
       <c r="T8">
-        <v>0.01801149794142602</v>
+        <v>0.03250024196379897</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.322645666666667</v>
+        <v>1.055528333333333</v>
       </c>
       <c r="H9">
-        <v>3.967937</v>
+        <v>3.166585</v>
       </c>
       <c r="I9">
-        <v>0.05267977634159086</v>
+        <v>0.04195830650140851</v>
       </c>
       <c r="J9">
-        <v>0.05267977634159086</v>
+        <v>0.04195830650140851</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.165310333333333</v>
+        <v>1.718172</v>
       </c>
       <c r="N9">
-        <v>3.495931</v>
+        <v>5.154515999999999</v>
       </c>
       <c r="O9">
-        <v>0.6580946391147473</v>
+        <v>0.2254157835777295</v>
       </c>
       <c r="P9">
-        <v>0.6580946391147473</v>
+        <v>0.2254157835777294</v>
       </c>
       <c r="Q9">
-        <v>1.541292662705222</v>
+        <v>1.81357922754</v>
       </c>
       <c r="R9">
-        <v>13.871633964347</v>
+        <v>16.32221304786</v>
       </c>
       <c r="S9">
-        <v>0.03466827840016484</v>
+        <v>0.009458064537609541</v>
       </c>
       <c r="T9">
-        <v>0.03466827840016484</v>
+        <v>0.009458064537609539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.087578</v>
+        <v>4.420738</v>
       </c>
       <c r="H10">
-        <v>15.262734</v>
+        <v>13.262214</v>
       </c>
       <c r="I10">
-        <v>0.2026336137597937</v>
+        <v>0.1757287550781902</v>
       </c>
       <c r="J10">
-        <v>0.2026336137597937</v>
+        <v>0.1757287550781902</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6054233333333333</v>
+        <v>5.904062666666666</v>
       </c>
       <c r="N10">
-        <v>1.81627</v>
+        <v>17.712188</v>
       </c>
       <c r="O10">
-        <v>0.3419053608852526</v>
+        <v>0.7745842164222705</v>
       </c>
       <c r="P10">
-        <v>0.3419053608852526</v>
+        <v>0.7745842164222705</v>
       </c>
       <c r="Q10">
-        <v>3.080138431353333</v>
+        <v>26.10031418491466</v>
       </c>
       <c r="R10">
-        <v>27.72124588217999</v>
+        <v>234.902827664232</v>
       </c>
       <c r="S10">
-        <v>0.06928151884002516</v>
+        <v>0.1361167200551011</v>
       </c>
       <c r="T10">
-        <v>0.06928151884002515</v>
+        <v>0.1361167200551011</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.087578</v>
+        <v>4.420738</v>
       </c>
       <c r="H11">
-        <v>15.262734</v>
+        <v>13.262214</v>
       </c>
       <c r="I11">
-        <v>0.2026336137597937</v>
+        <v>0.1757287550781902</v>
       </c>
       <c r="J11">
-        <v>0.2026336137597937</v>
+        <v>0.1757287550781902</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.165310333333333</v>
+        <v>1.718172</v>
       </c>
       <c r="N11">
-        <v>3.495931</v>
+        <v>5.154515999999999</v>
       </c>
       <c r="O11">
-        <v>0.6580946391147473</v>
+        <v>0.2254157835777295</v>
       </c>
       <c r="P11">
-        <v>0.6580946391147473</v>
+        <v>0.2254157835777294</v>
       </c>
       <c r="Q11">
-        <v>5.928607215039333</v>
+        <v>7.595588250935999</v>
       </c>
       <c r="R11">
-        <v>53.35746493535399</v>
+        <v>68.36029425842399</v>
       </c>
       <c r="S11">
-        <v>0.1333520949197685</v>
+        <v>0.03961203502308915</v>
       </c>
       <c r="T11">
-        <v>0.1333520949197685</v>
+        <v>0.03961203502308915</v>
       </c>
     </row>
   </sheetData>
